--- a/01_Input/00_CO Validation/Malawi - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Malawi - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27004"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="292" documentId="11_C6A8EC944518ADD515B964CEBC08252D554BC346" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{903639D4-708B-491E-BE32-F69325C48BF0}"/>
+  <xr:revisionPtr revIDLastSave="306" documentId="11_C6A8EC944518ADD515B964CEBC08252D554BC346" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF5D50BE-D233-4853-9377-9D17E21AD95B}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,6 +15,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="101">
   <si>
     <t>Project ID</t>
   </si>
@@ -174,40 +177,43 @@
     <t>GHG Emission Reduction</t>
   </si>
   <si>
+    <t>Greenhouse gas emissions mitigated GtCO2</t>
+  </si>
+  <si>
+    <t>1068 metric tons of carbon dioxide equivalent (Units of measure: metric tons of CO2e)</t>
+  </si>
+  <si>
+    <t>GEF</t>
+  </si>
+  <si>
+    <t>VF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of direct beneficiaries disaggregated by gender (and customer segment) as co-benefit of GEF investment </t>
+  </si>
+  <si>
+    <t>AMP</t>
+  </si>
+  <si>
+    <t>Entrepreneurship Training</t>
+  </si>
+  <si>
+    <t>Number of direct primary jobs created in the minigrid sector, disaggregated by gender, for minigrid development, operation and productive use</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>to the CO: What is a "Productive User"?</t>
+  </si>
+  <si>
+    <t>to the CO: Please estimate number of beneficiaries.</t>
+  </si>
+  <si>
+    <t>GHG Emissions Reduction</t>
+  </si>
+  <si>
     <t xml:space="preserve">Greenhouse gas emissions mitigated </t>
-  </si>
-  <si>
-    <t>1068 metric tons of carbon dioxide equivalent (Units of measure: metric tons of CO2e)</t>
-  </si>
-  <si>
-    <t>GEF</t>
-  </si>
-  <si>
-    <t>VF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of direct beneficiaries disaggregated by gender (and customer segment) as co-benefit of GEF investment </t>
-  </si>
-  <si>
-    <t>AMP</t>
-  </si>
-  <si>
-    <t>Entrepreneurship Training</t>
-  </si>
-  <si>
-    <t>Number of direct primary jobs created in the minigrid sector, disaggregated by gender, for minigrid development, operation and productive use</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>to the CO: What is a "Productive User"?</t>
-  </si>
-  <si>
-    <t>to the CO: Please estimate number of beneficiaries.</t>
-  </si>
-  <si>
-    <t>GHG Emissions Reduction</t>
   </si>
   <si>
     <t>to the CO: Please provide a unit</t>
@@ -639,7 +645,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -768,13 +774,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -809,6 +818,32 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1117,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A9A023-B048-49F4-9582-01C93B7893F0}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1133,16 +1168,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="53" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="14" t="s">
@@ -1157,7 +1192,7 @@
       <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="52" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="13" t="s">
@@ -1190,31 +1225,31 @@
       <c r="S1" s="19"/>
     </row>
     <row r="2" spans="1:19" ht="60.75">
-      <c r="A2" s="31">
+      <c r="A2" s="36">
         <v>126170</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="54" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="31">
         <v>3379000</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="69">
         <v>0.38500000000000001</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="69">
         <v>2.0249999999999999</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="70" t="s">
         <v>22</v>
       </c>
       <c r="J2" s="30" t="s">
@@ -1237,23 +1272,23 @@
       <c r="S2" s="19"/>
     </row>
     <row r="3" spans="1:19" ht="60.75">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="46" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="70" t="s">
         <v>31</v>
       </c>
       <c r="J3" s="30"/>
@@ -1273,22 +1308,22 @@
     </row>
     <row r="4" spans="1:19" ht="121.5">
       <c r="A4" s="38"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="47" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="69">
         <v>0</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="72">
         <v>15</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="70" t="s">
         <v>34</v>
       </c>
       <c r="J4" s="30"/>
@@ -1308,20 +1343,20 @@
     </row>
     <row r="5" spans="1:19" ht="45.75">
       <c r="A5" s="38"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="47" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28">
+      <c r="G5" s="69"/>
+      <c r="H5" s="72">
         <v>10000</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="70" t="s">
         <v>37</v>
       </c>
       <c r="J5" s="30"/>
@@ -1337,18 +1372,18 @@
     </row>
     <row r="6" spans="1:19" ht="45.75">
       <c r="A6" s="38"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="47" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27">
+      <c r="F6" s="73"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69">
         <v>210000</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="70" t="s">
         <v>39</v>
       </c>
       <c r="J6" s="30"/>
@@ -1365,17 +1400,17 @@
       <c r="S6" s="19"/>
     </row>
     <row r="7" spans="1:19" ht="91.5">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="46" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="48" t="s">
+      <c r="F7" s="73"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="70" t="s">
         <v>42</v>
       </c>
       <c r="J7" s="30"/>
@@ -1398,31 +1433,31 @@
       <c r="S7" s="19"/>
     </row>
     <row r="8" spans="1:19" ht="45.75">
-      <c r="A8" s="32">
+      <c r="A8" s="36">
         <v>6512</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="31">
         <v>396125</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="69">
         <v>0</v>
       </c>
-      <c r="H8" s="27">
-        <v>1068</v>
-      </c>
-      <c r="I8" s="52" t="s">
+      <c r="H8" s="69">
+        <v>1.0680000000000001</v>
+      </c>
+      <c r="I8" s="70" t="s">
         <v>48</v>
       </c>
       <c r="J8" s="30" t="s">
@@ -1441,23 +1476,23 @@
       <c r="S8" s="19"/>
     </row>
     <row r="9" spans="1:19" ht="91.5">
-      <c r="A9" s="36"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="46" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="69">
         <v>0</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="75">
         <v>763</v>
       </c>
-      <c r="I9" s="54"/>
+      <c r="I9" s="76"/>
       <c r="J9" s="30"/>
       <c r="K9" s="23">
         <v>0.51</v>
@@ -1479,22 +1514,22 @@
     </row>
     <row r="10" spans="1:19" ht="121.5">
       <c r="A10" s="39"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="46" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="69">
         <v>0</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="75">
         <v>10</v>
       </c>
-      <c r="I10" s="54"/>
+      <c r="I10" s="76"/>
       <c r="J10" s="30"/>
       <c r="K10" s="23">
         <v>0.5</v>
@@ -1824,7 +1859,7 @@
         <v>58</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G8" s="27">
         <v>0</v>
@@ -1835,15 +1870,15 @@
       <c r="I8" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="55" t="s">
+      <c r="J8" s="56" t="s">
         <v>49</v>
       </c>
       <c r="K8" s="19"/>
-      <c r="L8" s="55" t="s">
+      <c r="L8" s="56" t="s">
         <v>50</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="91.5">
@@ -1864,11 +1899,11 @@
         <v>763</v>
       </c>
       <c r="I9" s="16"/>
-      <c r="J9" s="56"/>
+      <c r="J9" s="57"/>
       <c r="K9" s="23">
         <v>0.51</v>
       </c>
-      <c r="L9" s="56"/>
+      <c r="L9" s="57"/>
       <c r="M9" s="19"/>
       <c r="O9" t="s">
         <v>32</v>
@@ -1898,11 +1933,11 @@
         <v>10</v>
       </c>
       <c r="I10" s="16"/>
-      <c r="J10" s="57"/>
+      <c r="J10" s="58"/>
       <c r="K10" s="23">
         <v>0.5</v>
       </c>
-      <c r="L10" s="57"/>
+      <c r="L10" s="58"/>
       <c r="M10" s="19"/>
     </row>
   </sheetData>
@@ -1997,45 +2032,45 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="60.75">
-      <c r="A2" s="58">
+      <c r="A2" s="59">
         <v>126170</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="58">
+      <c r="D2" s="59">
         <v>3379000</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>27</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="60.75">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="59"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="60"/>
       <c r="E3" s="2"/>
       <c r="F3" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H3" s="11">
         <v>10000</v>
@@ -2045,10 +2080,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="60.75">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="59"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="2"/>
       <c r="F4" s="6" t="s">
         <v>33</v>
@@ -2062,13 +2097,13 @@
       <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:10" ht="60.75">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="59"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="60"/>
       <c r="E5" s="2"/>
       <c r="F5" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G5" s="9">
         <v>0</v>
@@ -2079,10 +2114,10 @@
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="59"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="2" t="s">
         <v>35</v>
       </c>
@@ -2090,14 +2125,14 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="91.5">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="59"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="2" t="s">
         <v>41</v>
       </c>
@@ -2122,10 +2157,10 @@
         <v>396125</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G8" s="8">
         <v>0</v>
@@ -2149,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" t="s">
@@ -2158,7 +2193,7 @@
     </row>
     <row r="10" spans="1:10" ht="121.5">
       <c r="E10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>54</v>
@@ -2167,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" t="s">
@@ -2213,160 +2248,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="62" t="s">
-        <v>73</v>
+      <c r="A2" s="63" t="s">
+        <v>74</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="62"/>
+      <c r="A3" s="63"/>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="62"/>
+      <c r="A4" s="63"/>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="63" t="s">
-        <v>78</v>
+      <c r="A5" s="64" t="s">
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="63"/>
+      <c r="A6" s="64"/>
       <c r="B6" t="s">
         <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="63"/>
+      <c r="A7" s="64"/>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="63"/>
+      <c r="A8" s="64"/>
       <c r="B8" t="s">
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="63"/>
+      <c r="A9" s="64"/>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="64" t="s">
-        <v>87</v>
+      <c r="A10" s="65" t="s">
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="64"/>
+      <c r="A11" s="65"/>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="65" t="s">
-        <v>91</v>
+      <c r="A12" s="66" t="s">
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="65"/>
+      <c r="A13" s="66"/>
       <c r="B13" t="s">
         <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="65"/>
+      <c r="A14" s="66"/>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
         <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
